--- a/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>HSDT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,59 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -722,19 +725,19 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
@@ -742,22 +745,25 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
-      </c>
-      <c r="E9" s="3">
-        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -771,23 +777,26 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -800,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,37 +919,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4500</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,37 +1136,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E41" s="3">
         <v>9000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,129 +1681,144 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>700</v>
       </c>
       <c r="K43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E46" s="3">
         <v>11200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>27000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
@@ -1725,8 +1829,8 @@
       <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
@@ -1737,8 +1841,11 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1752,51 +1859,57 @@
         <v>1300</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
       </c>
       <c r="I48" s="3">
+        <v>600</v>
+      </c>
+      <c r="J48" s="3">
         <v>400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E54" s="3">
         <v>12900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1975,28 +2105,31 @@
         <v>1700</v>
       </c>
       <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,66 +2157,75 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="E59" s="3">
         <v>1800</v>
       </c>
       <c r="F59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G59" s="3">
         <v>7400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>15600</v>
       </c>
       <c r="H59" s="3">
         <v>15600</v>
       </c>
       <c r="I59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J59" s="3">
         <v>27600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>29100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,22 +2253,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>600</v>
       </c>
       <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-104800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-99400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-93900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-93700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-95000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-89900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-85400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-67500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-66400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E76" s="3">
         <v>8800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-12100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,13 +2832,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>18300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>18000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>HSDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,63 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -728,19 +732,19 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -748,25 +752,28 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -780,26 +787,29 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>1600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,16 +942,19 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>100</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -948,14 +971,17 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E17" s="3">
         <v>5800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,72 +1076,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,40 +1179,46 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E41" s="3">
         <v>5500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,40 +1774,46 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>700</v>
       </c>
       <c r="L43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1725,103 +1821,112 @@
         <v>600</v>
       </c>
       <c r="E44" s="3">
+        <v>600</v>
+      </c>
+      <c r="F44" s="3">
         <v>1300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>400</v>
       </c>
       <c r="L45" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E46" s="3">
         <v>7200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>27000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
@@ -1832,8 +1937,8 @@
       <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -1844,13 +1949,16 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="3">
         <v>1300</v>
@@ -1862,31 +1970,34 @@
         <v>1300</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
       </c>
       <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
         <v>400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1800</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
@@ -1902,14 +2013,17 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E54" s="3">
         <v>10300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,40 +2226,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>1700</v>
       </c>
       <c r="F57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,72 +2294,81 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1800</v>
       </c>
       <c r="F59" s="3">
         <v>1800</v>
       </c>
       <c r="G59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H59" s="3">
         <v>7400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>15600</v>
       </c>
       <c r="I59" s="3">
         <v>15600</v>
       </c>
       <c r="J59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K59" s="3">
         <v>27600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>17800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>29100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,25 +2399,28 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>600</v>
       </c>
       <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>600</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-109500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-104800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-99400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-93900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-93700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-95000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-89900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-85400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-67500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-66400</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E76" s="3">
         <v>5800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-12100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,17 +3031,18 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3080,31 +3301,34 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3584,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>18300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>18000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>HSDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,72 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -735,19 +739,19 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
@@ -755,8 +759,11 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,19 +771,19 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -790,29 +797,32 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,8 +979,8 @@
       <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -974,14 +997,17 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E17" s="3">
         <v>4200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,43 +1222,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E41" s="3">
         <v>4400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1867,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1786,34 +1879,37 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>700</v>
       </c>
       <c r="M43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1824,31 +1920,34 @@
         <v>600</v>
       </c>
       <c r="F44" s="3">
+        <v>600</v>
+      </c>
+      <c r="G44" s="3">
         <v>1300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1856,80 +1955,86 @@
         <v>700</v>
       </c>
       <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>400</v>
       </c>
       <c r="M45" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E46" s="3">
         <v>5900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>20800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>27000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
@@ -1940,8 +2045,8 @@
       <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>300</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -1952,16 +2057,19 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1300</v>
       </c>
       <c r="F48" s="3">
         <v>1300</v>
@@ -1973,34 +2081,37 @@
         <v>1300</v>
       </c>
       <c r="I48" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
       </c>
       <c r="K48" s="3">
+        <v>600</v>
+      </c>
+      <c r="L48" s="3">
         <v>400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1800</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2016,14 +2127,17 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E54" s="3">
         <v>8500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2357,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1700</v>
       </c>
       <c r="F57" s="3">
         <v>1700</v>
       </c>
       <c r="G57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,78 +2431,87 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1800</v>
       </c>
       <c r="G59" s="3">
         <v>1800</v>
       </c>
       <c r="H59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I59" s="3">
         <v>7400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>15600</v>
       </c>
       <c r="J59" s="3">
         <v>15600</v>
       </c>
       <c r="K59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="L59" s="3">
         <v>27600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,28 +2545,31 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>600</v>
       </c>
       <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>600</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-112900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-109500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-104800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-99400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-93900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-93700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-95000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-89900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-85400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-67500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-66400</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E76" s="3">
         <v>5200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-12100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,20 +3230,21 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3304,31 +3525,34 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>18300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>18000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>HSDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -733,7 +737,7 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
@@ -742,19 +746,19 @@
         <v>200</v>
       </c>
       <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
@@ -762,31 +766,34 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -800,32 +807,35 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -863,37 +877,40 @@
         <v>1300</v>
       </c>
       <c r="E12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,8 +1005,8 @@
       <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -1000,14 +1023,17 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1144,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,46 +1265,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E41" s="3">
         <v>5300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1882,34 +1975,37 @@
         <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>700</v>
       </c>
       <c r="N43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1923,31 +2019,34 @@
         <v>600</v>
       </c>
       <c r="G44" s="3">
+        <v>600</v>
+      </c>
+      <c r="H44" s="3">
         <v>1300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1958,72 +2057,78 @@
         <v>700</v>
       </c>
       <c r="F45" s="3">
+        <v>700</v>
+      </c>
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>400</v>
       </c>
       <c r="N45" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E46" s="3">
         <v>6700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>27000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2033,11 +2138,11 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
@@ -2048,8 +2153,8 @@
       <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>300</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2069,10 +2177,10 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
         <v>1200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1300</v>
       </c>
       <c r="G48" s="3">
         <v>1300</v>
@@ -2084,22 +2192,25 @@
         <v>1300</v>
       </c>
       <c r="J48" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
       </c>
       <c r="L48" s="3">
+        <v>600</v>
+      </c>
+      <c r="M48" s="3">
         <v>400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2107,14 +2218,14 @@
         <v>1300</v>
       </c>
       <c r="E49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F49" s="3">
         <v>1400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2130,14 +2241,17 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2488,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1700</v>
       </c>
       <c r="G57" s="3">
         <v>1700</v>
       </c>
       <c r="H57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,84 +2568,93 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1800</v>
       </c>
       <c r="H59" s="3">
         <v>1800</v>
       </c>
       <c r="I59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J59" s="3">
         <v>7400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>15600</v>
       </c>
       <c r="K59" s="3">
         <v>15600</v>
       </c>
       <c r="L59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="M59" s="3">
         <v>27600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2557,22 +2703,22 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>600</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>600</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-116400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-112900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-109500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-104800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-99400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-93900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-93700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-95000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-89900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-85400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-67500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-66400</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>6400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-12100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3240,14 +3439,14 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3528,31 +3749,34 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>4100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>18300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>18000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>HSDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
@@ -749,19 +752,19 @@
         <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
@@ -769,34 +772,37 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
       <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>200</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -810,35 +816,38 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="E12" s="3">
         <v>1300</v>
       </c>
       <c r="F12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1030,8 @@
       <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1026,14 +1048,17 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,49 +1307,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1978,39 +2070,42 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>700</v>
       </c>
       <c r="O43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
         <v>600</v>
@@ -2022,31 +2117,34 @@
         <v>600</v>
       </c>
       <c r="H44" s="3">
+        <v>600</v>
+      </c>
+      <c r="I44" s="3">
         <v>1300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2060,75 +2158,81 @@
         <v>700</v>
       </c>
       <c r="G45" s="3">
+        <v>700</v>
+      </c>
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>400</v>
       </c>
       <c r="O45" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E46" s="3">
         <v>4100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2141,11 +2245,11 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
@@ -2156,8 +2260,8 @@
       <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>300</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -2168,8 +2272,11 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2180,10 +2287,10 @@
         <v>600</v>
       </c>
       <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>1200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1300</v>
       </c>
       <c r="H48" s="3">
         <v>1300</v>
@@ -2195,22 +2302,25 @@
         <v>1300</v>
       </c>
       <c r="K48" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
       </c>
       <c r="M48" s="3">
+        <v>600</v>
+      </c>
+      <c r="N48" s="3">
         <v>400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2221,14 +2331,14 @@
         <v>1300</v>
       </c>
       <c r="F49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G49" s="3">
         <v>1400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1800</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2244,14 +2354,17 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2498,40 +2628,43 @@
         <v>700</v>
       </c>
       <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1700</v>
       </c>
       <c r="H57" s="3">
         <v>1700</v>
       </c>
       <c r="I57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,90 +2704,99 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1800</v>
       </c>
       <c r="I59" s="3">
         <v>1800</v>
       </c>
       <c r="J59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K59" s="3">
         <v>7400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>15600</v>
       </c>
       <c r="L59" s="3">
         <v>15600</v>
       </c>
       <c r="M59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="N59" s="3">
         <v>27600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2706,22 +2851,22 @@
         <v>300</v>
       </c>
       <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>600</v>
       </c>
       <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>600</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-118900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-116400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-112900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-109500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-104800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-99400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-93900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-93700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-95000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-89900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-85400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-67500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-66400</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E76" s="3">
         <v>3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-12100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3442,14 +3640,14 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3752,31 +3972,34 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3866,40 +4095,43 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>4100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>18300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>18000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>HSDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
@@ -755,19 +759,19 @@
         <v>200</v>
       </c>
       <c r="J8" s="3">
+        <v>200</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
@@ -775,37 +779,40 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>200</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -819,38 +826,41 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1300</v>
       </c>
       <c r="F12" s="3">
         <v>1300</v>
       </c>
       <c r="G12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1056,8 @@
       <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1051,14 +1074,17 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2073,42 +2166,45 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>500</v>
-      </c>
-      <c r="O43" s="3">
-        <v>700</v>
       </c>
       <c r="P43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>400</v>
-      </c>
-      <c r="E44" s="3">
-        <v>600</v>
       </c>
       <c r="F44" s="3">
         <v>600</v>
@@ -2120,36 +2216,39 @@
         <v>600</v>
       </c>
       <c r="I44" s="3">
+        <v>600</v>
+      </c>
+      <c r="J44" s="3">
         <v>1300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E45" s="3">
         <v>700</v>
@@ -2161,78 +2260,84 @@
         <v>700</v>
       </c>
       <c r="H45" s="3">
+        <v>700</v>
+      </c>
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>400</v>
       </c>
       <c r="P45" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E46" s="3">
         <v>4700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2248,11 +2353,11 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>300</v>
@@ -2263,8 +2368,8 @@
       <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="M47" s="3">
+        <v>300</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2290,10 +2398,10 @@
         <v>600</v>
       </c>
       <c r="G48" s="3">
+        <v>600</v>
+      </c>
+      <c r="H48" s="3">
         <v>1200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1300</v>
       </c>
       <c r="I48" s="3">
         <v>1300</v>
@@ -2305,27 +2413,30 @@
         <v>1300</v>
       </c>
       <c r="L48" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
       </c>
       <c r="N48" s="3">
+        <v>600</v>
+      </c>
+      <c r="O48" s="3">
         <v>400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E49" s="3">
         <v>1300</v>
@@ -2334,14 +2445,14 @@
         <v>1300</v>
       </c>
       <c r="G49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H49" s="3">
         <v>1400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2357,14 +2468,17 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
       </c>
       <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1700</v>
       </c>
       <c r="I57" s="3">
         <v>1700</v>
       </c>
       <c r="J57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,96 +2841,105 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1800</v>
       </c>
       <c r="J59" s="3">
         <v>1800</v>
       </c>
       <c r="K59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L59" s="3">
         <v>7400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>15600</v>
       </c>
       <c r="M59" s="3">
         <v>15600</v>
       </c>
       <c r="N59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="O59" s="3">
         <v>27600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,13 +2982,16 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -2854,22 +3000,22 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>600</v>
       </c>
       <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>600</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-122300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-118900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-116400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-112900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-109500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-104800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-99400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-93900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-93700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-95000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-89900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-85400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-67500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-66400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E76" s="3">
         <v>3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-12100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3643,14 +3842,14 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3975,31 +4196,34 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4098,40 +4328,43 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2900</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>4100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>18300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>18000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>HSDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,16 +748,16 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
@@ -762,19 +766,19 @@
         <v>200</v>
       </c>
       <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
@@ -782,40 +786,43 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>200</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -829,41 +836,44 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="3">
         <v>1300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1300</v>
       </c>
       <c r="G12" s="3">
         <v>1300</v>
       </c>
       <c r="H12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,13 +1056,16 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1059,8 +1082,8 @@
       <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1077,14 +1100,17 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E41" s="3">
         <v>11400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2169,34 +2262,37 @@
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>500</v>
-      </c>
-      <c r="P43" s="3">
-        <v>700</v>
       </c>
       <c r="Q43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2204,10 +2300,10 @@
         <v>500</v>
       </c>
       <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>600</v>
       </c>
       <c r="G44" s="3">
         <v>600</v>
@@ -2219,31 +2315,34 @@
         <v>600</v>
       </c>
       <c r="J44" s="3">
+        <v>600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2251,7 +2350,7 @@
         <v>800</v>
       </c>
       <c r="E45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
@@ -2263,81 +2362,87 @@
         <v>700</v>
       </c>
       <c r="I45" s="3">
+        <v>700</v>
+      </c>
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>400</v>
       </c>
       <c r="Q45" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2356,11 +2461,11 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>300</v>
@@ -2371,8 +2476,8 @@
       <c r="M47" s="3">
         <v>300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>300</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
@@ -2383,13 +2488,16 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
@@ -2401,10 +2509,10 @@
         <v>600</v>
       </c>
       <c r="H48" s="3">
+        <v>600</v>
+      </c>
+      <c r="I48" s="3">
         <v>1200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1300</v>
       </c>
       <c r="J48" s="3">
         <v>1300</v>
@@ -2416,22 +2524,25 @@
         <v>1300</v>
       </c>
       <c r="M48" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="N48" s="3">
         <v>600</v>
       </c>
       <c r="O48" s="3">
+        <v>600</v>
+      </c>
+      <c r="P48" s="3">
         <v>400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2439,7 +2550,7 @@
         <v>1200</v>
       </c>
       <c r="E49" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F49" s="3">
         <v>1300</v>
@@ -2448,14 +2559,14 @@
         <v>1300</v>
       </c>
       <c r="H49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I49" s="3">
         <v>1400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2471,14 +2582,17 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E54" s="3">
         <v>14700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
       </c>
       <c r="G57" s="3">
+        <v>700</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1700</v>
       </c>
       <c r="J57" s="3">
         <v>1700</v>
       </c>
       <c r="K57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,102 +2978,111 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1800</v>
       </c>
       <c r="K59" s="3">
         <v>1800</v>
       </c>
       <c r="L59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M59" s="3">
         <v>7400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>15600</v>
       </c>
       <c r="N59" s="3">
         <v>15600</v>
       </c>
       <c r="O59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="P59" s="3">
         <v>27600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2994,7 +3140,7 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -3003,22 +3149,22 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>600</v>
       </c>
       <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>600</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-128200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-122300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-118900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-116400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-112900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-109500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-104800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-99400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-93900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-93700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-95000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-89900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-85400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-67500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-66400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E76" s="3">
         <v>11900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-12100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3845,14 +4044,14 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4199,31 +4420,34 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4331,40 +4561,43 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-200</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>11000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>18300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>18000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>8100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>HSDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,145 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>200</v>
-      </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>500</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
+        <v>700</v>
+      </c>
+      <c r="P8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,38 +811,38 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
@@ -839,16 +852,22 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -863,23 +882,23 @@
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
@@ -889,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="3">
         <v>1400</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>800</v>
       </c>
       <c r="G12" s="3">
         <v>1300</v>
       </c>
       <c r="H12" s="3">
+        <v>800</v>
+      </c>
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>2200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>2300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>2900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>2600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1068,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1085,11 +1130,11 @@
       <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>100</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1103,14 +1148,20 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F17" s="3">
         <v>6200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>11800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-6800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-4900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1311,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>8100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-5900</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-3300</v>
+        <v>-4600</v>
       </c>
       <c r="F21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3400</v>
       </c>
-      <c r="H21" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-5200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-5100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-4500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1475,70 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-4500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-4500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-8100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-4500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-4500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F41" s="3">
         <v>7400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>14300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>18700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>25600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>12400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>16000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,13 +2420,19 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -2265,34 +2450,40 @@
         <v>200</v>
       </c>
       <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
+        <v>200</v>
+      </c>
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2303,13 +2494,13 @@
         <v>500</v>
       </c>
       <c r="F44" s="3">
+        <v>500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>500</v>
+      </c>
+      <c r="H44" s="3">
         <v>400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>600</v>
       </c>
       <c r="I44" s="3">
         <v>600</v>
@@ -2318,45 +2509,51 @@
         <v>600</v>
       </c>
       <c r="K44" s="3">
+        <v>600</v>
+      </c>
+      <c r="L44" s="3">
+        <v>600</v>
+      </c>
+      <c r="M44" s="3">
         <v>1300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
         <v>800</v>
       </c>
       <c r="F45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H45" s="3">
         <v>700</v>
@@ -2365,113 +2562,125 @@
         <v>700</v>
       </c>
       <c r="J45" s="3">
+        <v>700</v>
+      </c>
+      <c r="K45" s="3">
+        <v>700</v>
+      </c>
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F46" s="3">
         <v>9000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>12900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>11200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>16500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>20800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>27000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>12700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>16700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3">
-        <v>300</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>300</v>
@@ -2479,11 +2688,11 @@
       <c r="N47" s="3">
         <v>300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="O47" s="3">
+        <v>300</v>
+      </c>
+      <c r="P47" s="3">
+        <v>300</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
@@ -2491,19 +2700,25 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
-        <v>600</v>
-      </c>
       <c r="F48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
@@ -2512,13 +2727,13 @@
         <v>600</v>
       </c>
       <c r="I48" s="3">
+        <v>600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1300</v>
       </c>
       <c r="L48" s="3">
         <v>1300</v>
@@ -2527,52 +2742,58 @@
         <v>1300</v>
       </c>
       <c r="N48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F49" s="3">
         <v>1200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1300</v>
       </c>
       <c r="H49" s="3">
         <v>1300</v>
       </c>
       <c r="I49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2585,14 +2806,20 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2980,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F54" s="3">
         <v>10700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>14700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>18200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>22500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>27800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>13300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>17100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3140,66 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>1100</v>
       </c>
       <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,108 +3248,126 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>15600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>15600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>27600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>5300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2000</v>
       </c>
       <c r="I60" s="3">
         <v>2600</v>
       </c>
       <c r="J60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L60" s="3">
         <v>3800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>18000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>17800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>29100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3416,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3143,35 +3434,35 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
       <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3181,8 +3472,14 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="E66" s="3">
         <v>2800</v>
       </c>
       <c r="F66" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="G66" s="3">
         <v>2800</v>
       </c>
       <c r="H66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>18000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>17800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>29100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-132900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-128200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-122300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-118900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-116400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-112900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-109500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-104800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-99400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-93900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-93700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-95000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-89900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-85400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-67500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-66400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F76" s="3">
         <v>8400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>11900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>5200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>12000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-4500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,38 +4421,40 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>100</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -4076,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="G89" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3800</v>
       </c>
-      <c r="E89" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-6800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-5100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-3300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,13 +4835,15 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4423,13 +4864,13 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4438,16 +4879,22 @@
         <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,13 +4999,19 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4564,22 +5023,22 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-200</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4588,16 +5047,22 @@
         <v>-200</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,63 +5301,75 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-200</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="F100" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H100" s="3">
         <v>2900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>4100</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>18300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>18000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>3700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4916,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-4000</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
-        <v>8100</v>
+        <v>-2700</v>
       </c>
       <c r="F102" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2600</v>
       </c>
-      <c r="H102" s="3">
-        <v>900</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-6900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>13200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>11600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>HSDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -764,16 +768,16 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
@@ -782,19 +786,19 @@
         <v>200</v>
       </c>
       <c r="N8" s="3">
+        <v>200</v>
+      </c>
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
@@ -802,8 +806,11 @@
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,34 +824,34 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3">
+        <v>200</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -858,50 +865,53 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,55 +959,58 @@
         <v>1800</v>
       </c>
       <c r="E12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1300</v>
       </c>
       <c r="J12" s="3">
         <v>1300</v>
       </c>
       <c r="K12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1119,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1136,8 +1159,8 @@
       <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>100</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1154,14 +1177,17 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-4600</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>-5800</v>
+        <v>-4500</v>
       </c>
       <c r="G21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H21" s="3">
         <v>-3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-3400</v>
       </c>
       <c r="J21" s="3">
         <v>-3100</v>
       </c>
       <c r="K21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-4600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E41" s="3">
         <v>11000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,16 +2516,19 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -2456,34 +2549,37 @@
         <v>200</v>
       </c>
       <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>500</v>
-      </c>
-      <c r="S43" s="3">
-        <v>700</v>
       </c>
       <c r="T43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2500,10 +2596,10 @@
         <v>500</v>
       </c>
       <c r="H44" s="3">
+        <v>500</v>
+      </c>
+      <c r="I44" s="3">
         <v>400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>600</v>
       </c>
       <c r="J44" s="3">
         <v>600</v>
@@ -2515,39 +2611,42 @@
         <v>600</v>
       </c>
       <c r="M44" s="3">
+        <v>600</v>
+      </c>
+      <c r="N44" s="3">
         <v>1300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
-      </c>
-      <c r="E45" s="3">
-        <v>800</v>
       </c>
       <c r="F45" s="3">
         <v>800</v>
@@ -2556,7 +2655,7 @@
         <v>800</v>
       </c>
       <c r="H45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
@@ -2568,90 +2667,96 @@
         <v>700</v>
       </c>
       <c r="L45" s="3">
+        <v>700</v>
+      </c>
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
-      </c>
-      <c r="S45" s="3">
-        <v>400</v>
       </c>
       <c r="T45" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2676,14 +2781,14 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>300</v>
@@ -2694,8 +2799,8 @@
       <c r="P47" s="3">
         <v>300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+      <c r="Q47" s="3">
+        <v>300</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
@@ -2706,22 +2811,25 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
@@ -2733,10 +2841,10 @@
         <v>600</v>
       </c>
       <c r="K48" s="3">
+        <v>600</v>
+      </c>
+      <c r="L48" s="3">
         <v>1200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1300</v>
       </c>
       <c r="M48" s="3">
         <v>1300</v>
@@ -2748,22 +2856,25 @@
         <v>1300</v>
       </c>
       <c r="P48" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
       </c>
       <c r="R48" s="3">
+        <v>600</v>
+      </c>
+      <c r="S48" s="3">
         <v>400</v>
-      </c>
-      <c r="S48" s="3">
-        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2774,13 +2885,13 @@
         <v>1100</v>
       </c>
       <c r="F49" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G49" s="3">
         <v>1200</v>
       </c>
       <c r="H49" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I49" s="3">
         <v>1300</v>
@@ -2789,14 +2900,14 @@
         <v>1300</v>
       </c>
       <c r="K49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L49" s="3">
         <v>1400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2812,14 +2923,17 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E54" s="3">
         <v>14100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3154,52 +3285,55 @@
         <v>1100</v>
       </c>
       <c r="F57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
       </c>
       <c r="J57" s="3">
+        <v>700</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1700</v>
       </c>
       <c r="M57" s="3">
         <v>1700</v>
       </c>
       <c r="N57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,120 +3388,129 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="3">
         <v>1600</v>
       </c>
       <c r="F59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1800</v>
       </c>
       <c r="N59" s="3">
         <v>1800</v>
       </c>
       <c r="O59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P59" s="3">
         <v>7400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>15600</v>
       </c>
       <c r="Q59" s="3">
         <v>15600</v>
       </c>
       <c r="R59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="S59" s="3">
         <v>27600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>29100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,13 +3565,16 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -3440,7 +3586,7 @@
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -3449,22 +3595,22 @@
         <v>300</v>
       </c>
       <c r="K62" s="3">
+        <v>300</v>
+      </c>
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>600</v>
       </c>
       <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>600</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="E66" s="3">
         <v>2800</v>
       </c>
       <c r="F66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>29100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-141400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-137000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-132900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-128200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-122300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-118900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-116400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-112900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-109500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-104800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-99400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-93900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-93700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-95000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-89900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-85400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-67500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-66400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E76" s="3">
         <v>11300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-12100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,41 +4621,42 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>100</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>-400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="3">
-        <v>-3200</v>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F89" s="3">
-        <v>-6700</v>
+        <v>-9900</v>
       </c>
       <c r="G89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H89" s="3">
         <v>8800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
-        <v>-2600</v>
-      </c>
       <c r="J89" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-7000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,16 +5057,17 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4870,31 +5091,34 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,19 +5232,22 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5029,40 +5259,43 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>-200</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,72 +5550,78 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>500</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
-        <v>10800</v>
+        <v>11400</v>
       </c>
       <c r="G100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2900</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>6700</v>
       </c>
       <c r="K100" s="3">
+        <v>6700</v>
+      </c>
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>18300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>18000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="3">
-        <v>-2700</v>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F102" s="3">
-        <v>4100</v>
+        <v>1400</v>
       </c>
       <c r="G102" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H102" s="3">
         <v>10200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
-        <v>-2600</v>
-      </c>
       <c r="J102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>HSDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,101 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,58 +767,64 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>200</v>
-      </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
       <c r="O8" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="3">
         <v>500</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
+        <v>700</v>
+      </c>
+      <c r="S8" s="3">
+        <v>500</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,38 +841,38 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
@@ -868,8 +882,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,16 +897,16 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -901,23 +921,23 @@
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
@@ -927,8 +947,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +976,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>800</v>
       </c>
       <c r="J12" s="3">
         <v>1300</v>
       </c>
       <c r="K12" s="3">
+        <v>800</v>
+      </c>
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>2300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>2700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>2200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>2300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>2900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>2600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,31 +1102,37 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1127,8 +1167,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1145,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -1162,11 +1208,11 @@
       <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
+        <v>100</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1180,14 +1226,20 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1258,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F17" s="3">
         <v>4800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>11800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>4700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-5200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-4900</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,149 +1413,163 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>8100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3700</v>
       </c>
       <c r="F21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-4500</v>
       </c>
-      <c r="G21" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1524,67 +1604,79 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-5100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-4500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-17800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1734,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1799,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-6000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-5100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-4500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-17800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-5100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-4500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-17800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1994,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2059,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2189,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-6000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-5100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-4500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-17800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2384,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-6000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-5100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-4500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-17800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2573,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F41" s="3">
         <v>6300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>9000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>14300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>18700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>25600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>12400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>16000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2699,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2528,13 +2714,13 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -2552,42 +2738,48 @@
         <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
@@ -2599,13 +2791,13 @@
         <v>500</v>
       </c>
       <c r="I44" s="3">
+        <v>500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>500</v>
+      </c>
+      <c r="K44" s="3">
         <v>400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>600</v>
       </c>
       <c r="L44" s="3">
         <v>600</v>
@@ -2614,54 +2806,60 @@
         <v>600</v>
       </c>
       <c r="N44" s="3">
+        <v>600</v>
+      </c>
+      <c r="O44" s="3">
+        <v>600</v>
+      </c>
+      <c r="P44" s="3">
         <v>1300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G45" s="3">
         <v>900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>800</v>
       </c>
       <c r="H45" s="3">
         <v>800</v>
       </c>
       <c r="I45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K45" s="3">
         <v>700</v>
@@ -2670,93 +2868,105 @@
         <v>700</v>
       </c>
       <c r="M45" s="3">
+        <v>700</v>
+      </c>
+      <c r="N45" s="3">
+        <v>700</v>
+      </c>
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F46" s="3">
         <v>8000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>12600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>12900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>11200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>16500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>20800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>27000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>12700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>16700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2784,17 +2994,17 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3">
-        <v>300</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>300</v>
@@ -2802,11 +3012,11 @@
       <c r="Q47" s="3">
         <v>300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="R47" s="3">
+        <v>300</v>
+      </c>
+      <c r="S47" s="3">
+        <v>300</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
@@ -2814,8 +3024,14 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2823,19 +3039,19 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
       </c>
       <c r="G48" s="3">
+        <v>400</v>
+      </c>
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
-        <v>600</v>
-      </c>
       <c r="I48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
@@ -2844,13 +3060,13 @@
         <v>600</v>
       </c>
       <c r="L48" s="3">
+        <v>600</v>
+      </c>
+      <c r="M48" s="3">
+        <v>600</v>
+      </c>
+      <c r="N48" s="3">
         <v>1200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1300</v>
       </c>
       <c r="O48" s="3">
         <v>1300</v>
@@ -2859,61 +3075,67 @@
         <v>1300</v>
       </c>
       <c r="Q48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S48" s="3">
         <v>600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="3">
         <v>1100</v>
       </c>
       <c r="G49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I49" s="3">
         <v>1200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1300</v>
       </c>
       <c r="K49" s="3">
         <v>1300</v>
       </c>
       <c r="L49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N49" s="3">
         <v>1400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2926,14 +3148,20 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,31 +3284,37 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3109,8 +3349,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3414,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F54" s="3">
         <v>9600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>14100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>14700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>18200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>22500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>27800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>13300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>17100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3533,75 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F57" s="3">
         <v>1100</v>
       </c>
       <c r="G57" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="H57" s="3">
         <v>1100</v>
       </c>
       <c r="I57" s="3">
+        <v>900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,126 +3659,144 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>7400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>15600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>15600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>27600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>5300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2000</v>
       </c>
       <c r="L60" s="3">
         <v>2600</v>
       </c>
       <c r="M60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O60" s="3">
         <v>3800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>18000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>17800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>29100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>7900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,19 +3854,25 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
-        <v>200</v>
-      </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -3589,35 +3881,35 @@
         <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
       <c r="L62" s="3">
+        <v>300</v>
+      </c>
+      <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3627,8 +3919,14 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4114,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2400</v>
       </c>
       <c r="H66" s="3">
         <v>2800</v>
       </c>
       <c r="I66" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="J66" s="3">
         <v>2800</v>
       </c>
       <c r="K66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>18000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>17800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>29100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4464,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-146200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-145200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-141400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-137000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-132900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-128200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-122300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-118900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-116400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-112900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-109500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-104800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-99400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-93900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-93700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-95000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-89900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-85400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-67500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-66400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4724,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F76" s="3">
         <v>7100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>11300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>12800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>12000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>9900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-4500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-12100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4854,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-6000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-5100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-4500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-17800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,47 +5018,49 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4681,8 +5079,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5404,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3700</v>
       </c>
       <c r="F89" s="3">
-        <v>-9900</v>
+        <v>-4700</v>
       </c>
       <c r="G89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-3800</v>
       </c>
-      <c r="H89" s="3">
-        <v>8800</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-7000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-5200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-5100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-3300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-6300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-4900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,16 +5498,18 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5094,13 +5536,13 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5109,16 +5551,22 @@
         <v>-200</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,49 +5689,55 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>100</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-200</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5286,16 +5746,22 @@
         <v>-200</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +6039,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
       </c>
       <c r="F100" s="3">
-        <v>11400</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>500</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>6700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>6700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>18300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>18000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>3700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5623,8 +6121,8 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5671,63 +6169,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3000</v>
       </c>
       <c r="F102" s="3">
-        <v>1400</v>
+        <v>-4700</v>
       </c>
       <c r="G102" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I102" s="3">
         <v>-4000</v>
       </c>
-      <c r="H102" s="3">
-        <v>10200</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-5300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-4300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>13200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-3600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>11600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>HSDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,121 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -785,16 +788,16 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
@@ -803,19 +806,19 @@
         <v>200</v>
       </c>
       <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
+      <c r="U8" s="3">
+        <v>0</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
@@ -823,13 +826,16 @@
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -847,34 +853,34 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>100</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>200</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>200</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -888,59 +894,62 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
@@ -953,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -987,64 +1000,67 @@
         <v>800</v>
       </c>
       <c r="E12" s="3">
+        <v>800</v>
+      </c>
+      <c r="F12" s="3">
         <v>1000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1800</v>
       </c>
       <c r="G12" s="3">
         <v>1800</v>
       </c>
       <c r="H12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1300</v>
       </c>
       <c r="M12" s="3">
         <v>1300</v>
       </c>
       <c r="N12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,17 +1124,20 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1134,8 +1153,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1197,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1214,8 +1236,8 @@
       <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>100</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1232,14 +1254,17 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4900</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,147 +1447,154 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>4700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3700</v>
       </c>
-      <c r="F21" s="3">
-        <v>-4300</v>
-      </c>
       <c r="G21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4600</v>
       </c>
-      <c r="I21" s="3">
-        <v>-5900</v>
-      </c>
       <c r="J21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-3100</v>
       </c>
       <c r="M21" s="3">
         <v>-3100</v>
       </c>
       <c r="N21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-4600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4500</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1571,8 +1610,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1610,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-17800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-17800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-17800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-17800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-17800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E41" s="3">
         <v>16700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>18700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>25600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,13 +2794,16 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -2720,10 +2812,10 @@
         <v>200</v>
       </c>
       <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
@@ -2744,34 +2836,37 @@
         <v>200</v>
       </c>
       <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>500</v>
-      </c>
-      <c r="V43" s="3">
-        <v>700</v>
       </c>
       <c r="W43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2782,7 +2877,7 @@
         <v>600</v>
       </c>
       <c r="F44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G44" s="3">
         <v>500</v>
@@ -2797,10 +2892,10 @@
         <v>500</v>
       </c>
       <c r="K44" s="3">
+        <v>500</v>
+      </c>
+      <c r="L44" s="3">
         <v>400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>600</v>
       </c>
       <c r="M44" s="3">
         <v>600</v>
@@ -2812,48 +2907,51 @@
         <v>600</v>
       </c>
       <c r="P44" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1000</v>
       </c>
       <c r="F45" s="3">
         <v>1000</v>
       </c>
       <c r="G45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="3">
         <v>900</v>
-      </c>
-      <c r="H45" s="3">
-        <v>800</v>
       </c>
       <c r="I45" s="3">
         <v>800</v>
@@ -2862,7 +2960,7 @@
         <v>800</v>
       </c>
       <c r="K45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L45" s="3">
         <v>700</v>
@@ -2874,99 +2972,105 @@
         <v>700</v>
       </c>
       <c r="O45" s="3">
+        <v>700</v>
+      </c>
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
-      </c>
-      <c r="V45" s="3">
-        <v>400</v>
       </c>
       <c r="W45" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E46" s="3">
         <v>18200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>27000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3000,14 +3104,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>300</v>
@@ -3018,8 +3122,8 @@
       <c r="S47" s="3">
         <v>300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>300</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
@@ -3030,8 +3134,11 @@
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3045,16 +3152,16 @@
         <v>500</v>
       </c>
       <c r="G48" s="3">
+        <v>500</v>
+      </c>
+      <c r="H48" s="3">
         <v>400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
@@ -3066,10 +3173,10 @@
         <v>600</v>
       </c>
       <c r="N48" s="3">
+        <v>600</v>
+      </c>
+      <c r="O48" s="3">
         <v>1200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1300</v>
       </c>
       <c r="P48" s="3">
         <v>1300</v>
@@ -3081,33 +3188,36 @@
         <v>1300</v>
       </c>
       <c r="S48" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="T48" s="3">
         <v>600</v>
       </c>
       <c r="U48" s="3">
+        <v>600</v>
+      </c>
+      <c r="V48" s="3">
         <v>400</v>
-      </c>
-      <c r="V48" s="3">
-        <v>200</v>
       </c>
       <c r="W48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>100</v>
+      </c>
+      <c r="E49" s="3">
         <v>200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1100</v>
       </c>
       <c r="G49" s="3">
         <v>1100</v>
@@ -3116,13 +3226,13 @@
         <v>1100</v>
       </c>
       <c r="I49" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J49" s="3">
         <v>1200</v>
       </c>
       <c r="K49" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="L49" s="3">
         <v>1300</v>
@@ -3131,14 +3241,14 @@
         <v>1300</v>
       </c>
       <c r="N49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O49" s="3">
         <v>1400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3154,14 +3264,17 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3301,11 +3420,11 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -3316,8 +3435,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E54" s="3">
         <v>18900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3544,10 +3674,10 @@
         <v>600</v>
       </c>
       <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1100</v>
       </c>
       <c r="G57" s="3">
         <v>1100</v>
@@ -3556,52 +3686,55 @@
         <v>1100</v>
       </c>
       <c r="I57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>700</v>
       </c>
       <c r="L57" s="3">
         <v>700</v>
       </c>
       <c r="M57" s="3">
+        <v>700</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1700</v>
       </c>
       <c r="P57" s="3">
         <v>1700</v>
       </c>
       <c r="Q57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R57" s="3">
         <v>3000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3665,138 +3798,147 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1600</v>
       </c>
       <c r="H59" s="3">
         <v>1600</v>
       </c>
       <c r="I59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1800</v>
       </c>
       <c r="Q59" s="3">
         <v>1800</v>
       </c>
       <c r="R59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S59" s="3">
         <v>7400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>15600</v>
       </c>
       <c r="T59" s="3">
         <v>15600</v>
       </c>
       <c r="U59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="V59" s="3">
         <v>27600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>29100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,22 +4002,25 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E62" s="3">
         <v>4700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -3887,7 +4032,7 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
@@ -3896,22 +4041,22 @@
         <v>300</v>
       </c>
       <c r="N62" s="3">
+        <v>300</v>
+      </c>
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>500</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>600</v>
       </c>
       <c r="R62" s="3">
         <v>600</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>600</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E66" s="3">
         <v>5900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2800</v>
       </c>
       <c r="H66" s="3">
         <v>2800</v>
       </c>
       <c r="I66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>29100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-151100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-146200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-145200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-141400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-137000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-132900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-128200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-122300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-118900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-116400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-112900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-109500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-104800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-99400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-93900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-93700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-95000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-89900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-85400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-67500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-66400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E76" s="3">
         <v>13000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-12100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-17800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,13 +5217,14 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>100</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -5035,7 +5233,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -5044,26 +5242,26 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3800</v>
       </c>
-      <c r="E89" s="3">
-        <v>-3700</v>
-      </c>
       <c r="F89" s="3">
-        <v>-4700</v>
+        <v>-8300</v>
       </c>
       <c r="G89" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H89" s="3">
         <v>-3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="O89" s="3">
         <v>-3800</v>
       </c>
-      <c r="J89" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5542,31 +5762,34 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>-200</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,13 +5921,16 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5710,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -5728,40 +5957,43 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>-200</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
         <v>17200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="H100" s="3">
         <v>9800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>-200</v>
-      </c>
       <c r="J100" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K100" s="3">
         <v>11000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2900</v>
-      </c>
-      <c r="L100" s="3">
-        <v>6700</v>
       </c>
       <c r="M100" s="3">
         <v>6700</v>
       </c>
       <c r="N100" s="3">
+        <v>6700</v>
+      </c>
+      <c r="O100" s="3">
         <v>2700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>18300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>18000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6124,8 +6372,8 @@
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -6175,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
         <v>13400</v>
       </c>
-      <c r="E102" s="3">
-        <v>-3000</v>
-      </c>
       <c r="F102" s="3">
-        <v>-4700</v>
+        <v>-7700</v>
       </c>
       <c r="G102" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="H102" s="3">
         <v>6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2700</v>
       </c>
-      <c r="I102" s="3">
-        <v>-4000</v>
-      </c>
       <c r="J102" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K102" s="3">
         <v>8100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>HSDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,128 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -791,16 +795,16 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
@@ -809,19 +813,19 @@
         <v>200</v>
       </c>
       <c r="R8" s="3">
+        <v>200</v>
+      </c>
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
+      <c r="V8" s="3">
+        <v>0</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>4</v>
@@ -829,16 +833,19 @@
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -856,34 +863,34 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>100</v>
-      </c>
-      <c r="R9" s="3">
-        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="T9" s="3">
+        <v>200</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -897,62 +904,65 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E12" s="3">
         <v>800</v>
       </c>
       <c r="F12" s="3">
+        <v>800</v>
+      </c>
+      <c r="G12" s="3">
         <v>1000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1800</v>
       </c>
       <c r="H12" s="3">
         <v>1800</v>
       </c>
       <c r="I12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1300</v>
       </c>
       <c r="N12" s="3">
         <v>1300</v>
       </c>
       <c r="O12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,20 +1144,23 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1156,8 +1176,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1222,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1239,8 +1262,8 @@
       <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>100</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1257,14 +1280,17 @@
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4900</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,156 +1481,163 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-3100</v>
       </c>
       <c r="N21" s="3">
         <v>-3100</v>
       </c>
       <c r="O21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-4600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4500</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1613,8 +1653,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-17800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-17800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-17800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-17800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-17800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E41" s="3">
         <v>14500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>18700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>25600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>16000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,16 +2887,19 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -2815,10 +2908,10 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
@@ -2839,34 +2932,37 @@
         <v>200</v>
       </c>
       <c r="P43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>500</v>
-      </c>
-      <c r="W43" s="3">
-        <v>700</v>
       </c>
       <c r="X43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2880,7 +2976,7 @@
         <v>600</v>
       </c>
       <c r="G44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
@@ -2895,10 +2991,10 @@
         <v>500</v>
       </c>
       <c r="L44" s="3">
+        <v>500</v>
+      </c>
+      <c r="M44" s="3">
         <v>400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>600</v>
       </c>
       <c r="N44" s="3">
         <v>600</v>
@@ -2910,51 +3006,54 @@
         <v>600</v>
       </c>
       <c r="Q44" s="3">
+        <v>600</v>
+      </c>
+      <c r="R44" s="3">
         <v>1300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1000</v>
       </c>
       <c r="G45" s="3">
         <v>1000</v>
       </c>
       <c r="H45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I45" s="3">
         <v>900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>800</v>
       </c>
       <c r="J45" s="3">
         <v>800</v>
@@ -2963,7 +3062,7 @@
         <v>800</v>
       </c>
       <c r="L45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M45" s="3">
         <v>700</v>
@@ -2975,102 +3074,108 @@
         <v>700</v>
       </c>
       <c r="P45" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
-      </c>
-      <c r="W45" s="3">
-        <v>400</v>
       </c>
       <c r="X45" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E46" s="3">
         <v>16700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>20800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>27000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3107,14 +3212,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>300</v>
@@ -3125,8 +3230,8 @@
       <c r="T47" s="3">
         <v>300</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
+      <c r="U47" s="3">
+        <v>300</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
@@ -3137,13 +3242,16 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
@@ -3155,16 +3263,16 @@
         <v>500</v>
       </c>
       <c r="H48" s="3">
+        <v>500</v>
+      </c>
+      <c r="I48" s="3">
         <v>400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
       </c>
       <c r="K48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
@@ -3176,10 +3284,10 @@
         <v>600</v>
       </c>
       <c r="O48" s="3">
+        <v>600</v>
+      </c>
+      <c r="P48" s="3">
         <v>1200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1300</v>
       </c>
       <c r="Q48" s="3">
         <v>1300</v>
@@ -3191,22 +3299,25 @@
         <v>1300</v>
       </c>
       <c r="T48" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="U48" s="3">
         <v>600</v>
       </c>
       <c r="V48" s="3">
+        <v>600</v>
+      </c>
+      <c r="W48" s="3">
         <v>400</v>
-      </c>
-      <c r="W48" s="3">
-        <v>200</v>
       </c>
       <c r="X48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3214,13 +3325,13 @@
         <v>100</v>
       </c>
       <c r="E49" s="3">
+        <v>100</v>
+      </c>
+      <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1100</v>
       </c>
       <c r="H49" s="3">
         <v>1100</v>
@@ -3229,13 +3340,13 @@
         <v>1100</v>
       </c>
       <c r="J49" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K49" s="3">
         <v>1200</v>
       </c>
       <c r="L49" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="M49" s="3">
         <v>1300</v>
@@ -3244,14 +3355,14 @@
         <v>1300</v>
       </c>
       <c r="O49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P49" s="3">
         <v>1400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1800</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3267,14 +3378,17 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3423,11 +3543,11 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -3438,8 +3558,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E54" s="3">
         <v>17300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,22 +3795,23 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
         <v>600</v>
       </c>
       <c r="F57" s="3">
+        <v>600</v>
+      </c>
+      <c r="G57" s="3">
         <v>1000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1100</v>
       </c>
       <c r="H57" s="3">
         <v>1100</v>
@@ -3689,52 +3820,55 @@
         <v>1100</v>
       </c>
       <c r="J57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>700</v>
       </c>
       <c r="M57" s="3">
         <v>700</v>
       </c>
       <c r="N57" s="3">
+        <v>700</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1700</v>
       </c>
       <c r="Q57" s="3">
         <v>1700</v>
       </c>
       <c r="R57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S57" s="3">
         <v>3000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,144 +3935,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1600</v>
       </c>
       <c r="I59" s="3">
         <v>1600</v>
       </c>
       <c r="J59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1800</v>
       </c>
       <c r="R59" s="3">
         <v>1800</v>
       </c>
       <c r="S59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T59" s="3">
         <v>7400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>15600</v>
       </c>
       <c r="U59" s="3">
         <v>15600</v>
       </c>
       <c r="V59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="W59" s="3">
         <v>27600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>29100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,25 +4148,28 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E62" s="3">
         <v>7100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -4035,7 +4181,7 @@
         <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
@@ -4044,22 +4190,22 @@
         <v>300</v>
       </c>
       <c r="O62" s="3">
+        <v>300</v>
+      </c>
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>500</v>
-      </c>
-      <c r="R62" s="3">
-        <v>600</v>
       </c>
       <c r="S62" s="3">
         <v>600</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>600</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E66" s="3">
         <v>9100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2800</v>
       </c>
       <c r="I66" s="3">
         <v>2800</v>
       </c>
       <c r="J66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>18000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>29100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-153600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-151100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-146200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-145200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-141400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-137000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-132900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-128200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-122300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-118900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-116400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-112900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-109500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-104800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-99400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-93900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-93700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-95000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-89900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-85400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-67500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-66400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E76" s="3">
         <v>8200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-12100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-17800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,53 +5416,54 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3">
+      <c r="D83" s="3">
         <v>100</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>-200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5765,31 +5986,34 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V91" s="3">
         <v>-200</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,26 +6151,29 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5960,40 +6190,43 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>-200</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
         <v>17200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-21100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2900</v>
-      </c>
-      <c r="M100" s="3">
-        <v>6700</v>
       </c>
       <c r="N100" s="3">
         <v>6700</v>
       </c>
       <c r="O100" s="3">
+        <v>6700</v>
+      </c>
+      <c r="P100" s="3">
         <v>2700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>18300</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>18000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6375,8 +6624,8 @@
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3">
+      <c r="D102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
         <v>13400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>13200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>HSDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,135 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -798,16 +802,16 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
@@ -816,19 +820,19 @@
         <v>200</v>
       </c>
       <c r="S8" s="3">
+        <v>200</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
+      <c r="W8" s="3">
+        <v>0</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>4</v>
@@ -836,19 +840,22 @@
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -866,34 +873,34 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>100</v>
-      </c>
-      <c r="S9" s="3">
-        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
+      <c r="U9" s="3">
+        <v>200</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
@@ -907,65 +914,68 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
-      </c>
-      <c r="E12" s="3">
-        <v>800</v>
       </c>
       <c r="F12" s="3">
         <v>800</v>
       </c>
       <c r="G12" s="3">
+        <v>800</v>
+      </c>
+      <c r="H12" s="3">
         <v>1000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1800</v>
       </c>
       <c r="I12" s="3">
         <v>1800</v>
       </c>
       <c r="J12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1300</v>
       </c>
       <c r="O12" s="3">
         <v>1300</v>
       </c>
       <c r="P12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,23 +1164,26 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1179,8 +1199,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1248,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1265,8 +1288,8 @@
       <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>100</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1283,14 +1306,17 @@
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4900</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,79 +1515,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1564,68 +1601,71 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-3700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-3100</v>
       </c>
       <c r="O21" s="3">
         <v>-3100</v>
       </c>
       <c r="P21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4500</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1635,12 +1675,12 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1656,8 +1696,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1695,79 +1735,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-17800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-17800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-17800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-17800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-17800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E41" s="3">
         <v>11300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>18700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>16000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2899,10 +2992,10 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -2911,10 +3004,10 @@
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -2935,34 +3028,37 @@
         <v>200</v>
       </c>
       <c r="Q43" s="3">
+        <v>200</v>
+      </c>
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>500</v>
-      </c>
-      <c r="X43" s="3">
-        <v>700</v>
       </c>
       <c r="Y43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2979,7 +3075,7 @@
         <v>600</v>
       </c>
       <c r="H44" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
@@ -2994,10 +3090,10 @@
         <v>500</v>
       </c>
       <c r="M44" s="3">
+        <v>500</v>
+      </c>
+      <c r="N44" s="3">
         <v>400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>600</v>
       </c>
       <c r="O44" s="3">
         <v>600</v>
@@ -3009,54 +3105,57 @@
         <v>600</v>
       </c>
       <c r="R44" s="3">
+        <v>600</v>
+      </c>
+      <c r="S44" s="3">
         <v>1300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>200</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1000</v>
       </c>
       <c r="H45" s="3">
         <v>1000</v>
       </c>
       <c r="I45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J45" s="3">
         <v>900</v>
-      </c>
-      <c r="J45" s="3">
-        <v>800</v>
       </c>
       <c r="K45" s="3">
         <v>800</v>
@@ -3065,7 +3164,7 @@
         <v>800</v>
       </c>
       <c r="M45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N45" s="3">
         <v>700</v>
@@ -3077,105 +3176,111 @@
         <v>700</v>
       </c>
       <c r="Q45" s="3">
+        <v>700</v>
+      </c>
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
-      </c>
-      <c r="X45" s="3">
-        <v>400</v>
       </c>
       <c r="Y45" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E46" s="3">
         <v>13200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>20800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>27000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3215,14 +3320,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>300</v>
@@ -3233,8 +3338,8 @@
       <c r="U47" s="3">
         <v>300</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
+      <c r="V47" s="3">
+        <v>300</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3254,7 +3362,7 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
@@ -3266,16 +3374,16 @@
         <v>500</v>
       </c>
       <c r="I48" s="3">
+        <v>500</v>
+      </c>
+      <c r="J48" s="3">
         <v>400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
       </c>
       <c r="L48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
@@ -3287,10 +3395,10 @@
         <v>600</v>
       </c>
       <c r="P48" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1300</v>
       </c>
       <c r="R48" s="3">
         <v>1300</v>
@@ -3302,22 +3410,25 @@
         <v>1300</v>
       </c>
       <c r="U48" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="V48" s="3">
         <v>600</v>
       </c>
       <c r="W48" s="3">
+        <v>600</v>
+      </c>
+      <c r="X48" s="3">
         <v>400</v>
-      </c>
-      <c r="X48" s="3">
-        <v>200</v>
       </c>
       <c r="Y48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3328,13 +3439,13 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
+        <v>100</v>
+      </c>
+      <c r="G49" s="3">
         <v>200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1100</v>
       </c>
       <c r="I49" s="3">
         <v>1100</v>
@@ -3343,13 +3454,13 @@
         <v>1100</v>
       </c>
       <c r="K49" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="L49" s="3">
         <v>1200</v>
       </c>
       <c r="M49" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N49" s="3">
         <v>1300</v>
@@ -3358,14 +3469,14 @@
         <v>1300</v>
       </c>
       <c r="P49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1800</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3381,14 +3492,17 @@
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3546,11 +3666,11 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3561,8 +3681,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E54" s="3">
         <v>13800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>27800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,25 +3926,26 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
         <v>1000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1100</v>
       </c>
       <c r="I57" s="3">
         <v>1100</v>
@@ -3823,52 +3954,55 @@
         <v>1100</v>
       </c>
       <c r="K57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>700</v>
       </c>
       <c r="N57" s="3">
         <v>700</v>
       </c>
       <c r="O57" s="3">
+        <v>700</v>
+      </c>
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1700</v>
       </c>
       <c r="R57" s="3">
         <v>1700</v>
       </c>
       <c r="S57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T57" s="3">
         <v>3000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4072,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3947,141 +4084,147 @@
         <v>900</v>
       </c>
       <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1600</v>
       </c>
       <c r="J59" s="3">
         <v>1600</v>
       </c>
       <c r="K59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1800</v>
       </c>
       <c r="S59" s="3">
         <v>1800</v>
       </c>
       <c r="T59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U59" s="3">
         <v>7400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>15600</v>
       </c>
       <c r="V59" s="3">
         <v>15600</v>
       </c>
       <c r="W59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="X59" s="3">
         <v>27600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>29100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,28 +4294,31 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E62" s="3">
         <v>5900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -4184,7 +4330,7 @@
         <v>200</v>
       </c>
       <c r="M62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
@@ -4193,22 +4339,22 @@
         <v>300</v>
       </c>
       <c r="P62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>500</v>
-      </c>
-      <c r="S62" s="3">
-        <v>600</v>
       </c>
       <c r="T62" s="3">
         <v>600</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>600</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
         <v>7700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2800</v>
       </c>
       <c r="J66" s="3">
         <v>2800</v>
       </c>
       <c r="K66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>18000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>29100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-155200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-153600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-151100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-146200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-145200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-141400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-137000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-132900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-128200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-122300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-118900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-116400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-112900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-109500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-104800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-99400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-93900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-93700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-95000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-89900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-85400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-67500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-66400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E76" s="3">
         <v>6100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-12100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-17800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,56 +5615,57 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>-200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3200</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="L89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-3800</v>
       </c>
-      <c r="G89" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>8700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5989,31 +6210,34 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>-200</v>
       </c>
       <c r="X91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,29 +6381,32 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -6193,40 +6423,43 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>-200</v>
       </c>
       <c r="X94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>17200</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
+        <v>17900</v>
+      </c>
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-21100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2900</v>
-      </c>
-      <c r="N100" s="3">
-        <v>6700</v>
       </c>
       <c r="O100" s="3">
         <v>6700</v>
       </c>
       <c r="P100" s="3">
+        <v>6700</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>18300</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>18000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6621,14 +6870,14 @@
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-3200</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3">
-        <v>13400</v>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G102" s="3">
-        <v>-7700</v>
+        <v>5700</v>
       </c>
       <c r="H102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I102" s="3">
         <v>-12400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>13200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2900</v>
       </c>
     </row>
